--- a/common-npoi/src/main/resources/xlsx/demo_bigeach.xlsx
+++ b/common-npoi/src/main/resources/xlsx/demo_bigeach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99192D2-021E-49BA-AFC6-1828C2FB2D0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860779B1-B0FF-4584-AEC3-9524306205C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -55,6 +55,65 @@
   </si>
   <si>
     <t>#bigforeach detail in ${list}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag false</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if ${list}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag false data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if ${list22}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag true data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if ${notlist}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#if ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +165,30 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +259,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -539,45 +631,89 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>12333</v>
+    <row r="8" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
